--- a/Input_template.xlsx
+++ b/Input_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16065" windowHeight="4695" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16065" windowHeight="4695" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="_location" sheetId="2" state="hidden" r:id="rId1"/>
@@ -643,7 +643,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,6 +739,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -867,8 +868,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Baseline" displayName="Baseline" ref="A1:C55" totalsRowShown="0">
-  <autoFilter ref="A1:C55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Baseline" displayName="Baseline" ref="A1:C54" totalsRowShown="0">
+  <autoFilter ref="A1:C54"/>
   <tableColumns count="3">
     <tableColumn id="1" name="From (incl)" dataDxfId="5"/>
     <tableColumn id="3" name="To (excl)" dataDxfId="4">
@@ -881,8 +882,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Variables" displayName="Variables" ref="A1:C366" totalsRowShown="0">
-  <autoFilter ref="A1:C366"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Variables" displayName="Variables" ref="A1:C365" totalsRowShown="0">
+  <autoFilter ref="A1:C365"/>
   <tableColumns count="3">
     <tableColumn id="1" name="From (incl)" dataDxfId="2"/>
     <tableColumn id="3" name="To (excl)" dataDxfId="1">
@@ -1649,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2064,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B15"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" workbookViewId="0">
-      <selection sqref="A1:C366"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="P332" sqref="P332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7131,7 +7132,7 @@
         <f t="shared" si="5"/>
         <v>43831</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="33">
         <v>5.4939999999999998</v>
       </c>
     </row>

--- a/Input_template.xlsx
+++ b/Input_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16065" windowHeight="4695" firstSheet="3" activeTab="5"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="16065" windowHeight="4695" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="_location" sheetId="2" state="hidden" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
     <t>Locator</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>Dubai Mall</t>
+  </si>
+  <si>
+    <t>My CDD</t>
   </si>
 </sst>
 </file>
@@ -712,6 +715,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,7 +743,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -882,14 +885,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Variables" displayName="Variables" ref="A1:C365" totalsRowShown="0">
-  <autoFilter ref="A1:C365"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Variables" displayName="Variables" ref="A1:D365" totalsRowShown="0">
+  <autoFilter ref="A1:D365"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="From (incl)" dataDxfId="2"/>
     <tableColumn id="3" name="To (excl)" dataDxfId="1">
       <calculatedColumnFormula>IF(ISBLANK(A3),"",A3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Footfall" dataDxfId="0"/>
+    <tableColumn id="2" name="My CDD"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1650,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1680,7 +1684,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -1691,7 +1695,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="11" t="s">
         <v>78</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>109</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="G3" s="25"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
@@ -1708,7 +1712,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="11" t="s">
         <v>103</v>
       </c>
@@ -1716,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="25"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1726,7 +1730,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="11" t="s">
         <v>104</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="16" t="s">
         <v>2</v>
       </c>
@@ -1747,7 +1751,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="11" t="s">
         <v>100</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>2003</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="17" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1769,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="11" t="s">
         <v>54</v>
       </c>
@@ -1777,7 +1781,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="11" t="s">
         <v>56</v>
       </c>
@@ -1789,7 +1793,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="11" t="s">
         <v>92</v>
       </c>
@@ -1799,7 +1803,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="11" t="s">
         <v>57</v>
       </c>
@@ -1809,7 +1813,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1819,7 +1823,7 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="11" t="s">
         <v>59</v>
       </c>
@@ -1829,7 +1833,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>60</v>
       </c>
@@ -1839,7 +1843,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1850,7 +1854,7 @@
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -1862,7 +1866,7 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="11" t="s">
         <v>107</v>
       </c>
@@ -1872,7 +1876,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="11" t="s">
         <v>65</v>
       </c>
@@ -1882,7 +1886,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="11" t="s">
         <v>66</v>
       </c>
@@ -1894,7 +1898,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="11" t="s">
         <v>105</v>
       </c>
@@ -1905,7 +1909,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="11" t="s">
         <v>108</v>
       </c>
@@ -1918,7 +1922,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="11" t="s">
         <v>93</v>
       </c>
@@ -1929,7 +1933,7 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="12" t="s">
         <v>99</v>
       </c>
@@ -2745,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="P332" sqref="P332"/>
+    <sheetView topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="E357" sqref="E357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,7 +2761,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2767,8 +2771,11 @@
       <c r="C1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43466</v>
       </c>
@@ -2779,8 +2786,11 @@
       <c r="C2">
         <v>5.4950000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43467</v>
       </c>
@@ -2791,8 +2801,11 @@
       <c r="C3">
         <v>7.8109999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>90890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43468</v>
       </c>
@@ -2803,8 +2816,11 @@
       <c r="C4">
         <v>6.0069999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>9890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43469</v>
       </c>
@@ -2815,8 +2831,11 @@
       <c r="C5">
         <v>5.8129999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43470</v>
       </c>
@@ -2827,8 +2846,11 @@
       <c r="C6">
         <v>4.0179999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>48314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43471</v>
       </c>
@@ -2839,8 +2861,11 @@
       <c r="C7">
         <v>2.6120000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>53210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43472</v>
       </c>
@@ -2851,8 +2876,11 @@
       <c r="C8">
         <v>2.7160000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>58106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43473</v>
       </c>
@@ -2863,8 +2891,11 @@
       <c r="C9">
         <v>2.7519999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>63002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43474</v>
       </c>
@@ -2875,8 +2906,11 @@
       <c r="C10">
         <v>2.5529999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>67898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43475</v>
       </c>
@@ -2887,8 +2921,11 @@
       <c r="C11">
         <v>2.6859999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>72794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43476</v>
       </c>
@@ -2899,8 +2936,11 @@
       <c r="C12">
         <v>4.048</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>77690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43477</v>
       </c>
@@ -2911,8 +2951,11 @@
       <c r="C13">
         <v>3.2959999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>82586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43478</v>
       </c>
@@ -2923,8 +2966,11 @@
       <c r="C14">
         <v>1.9179999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>87482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43479</v>
       </c>
@@ -2935,8 +2981,11 @@
       <c r="C15">
         <v>1.423</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>92378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43480</v>
       </c>
@@ -2947,8 +2996,11 @@
       <c r="C16">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>97274.000000000102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43481</v>
       </c>
@@ -2959,8 +3011,11 @@
       <c r="C17">
         <v>2.1110000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>102170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43482</v>
       </c>
@@ -2971,8 +3026,11 @@
       <c r="C18">
         <v>2.5619999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>107066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43483</v>
       </c>
@@ -2983,8 +3041,11 @@
       <c r="C19">
         <v>3.766</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>111962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43484</v>
       </c>
@@ -2995,8 +3056,11 @@
       <c r="C20">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>116858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43485</v>
       </c>
@@ -3007,8 +3071,11 @@
       <c r="C21">
         <v>1.794</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>121754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43486</v>
       </c>
@@ -3019,8 +3086,11 @@
       <c r="C22">
         <v>1.254</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>126650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43487</v>
       </c>
@@ -3031,8 +3101,11 @@
       <c r="C23">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>131546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43488</v>
       </c>
@@ -3043,8 +3116,11 @@
       <c r="C24">
         <v>2.0390000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>136442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43489</v>
       </c>
@@ -3055,8 +3131,11 @@
       <c r="C25">
         <v>2.028</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>141338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43490</v>
       </c>
@@ -3067,8 +3146,11 @@
       <c r="C26">
         <v>4.1950000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>146234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43491</v>
       </c>
@@ -3079,8 +3161,11 @@
       <c r="C27">
         <v>3.2530000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>151130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43492</v>
       </c>
@@ -3091,8 +3176,11 @@
       <c r="C28">
         <v>1.2869999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>156026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43493</v>
       </c>
@@ -3103,8 +3191,11 @@
       <c r="C29">
         <v>1.2609999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>160922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43494</v>
       </c>
@@ -3115,8 +3206,11 @@
       <c r="C30">
         <v>1.494</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>165818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43495</v>
       </c>
@@ -3127,8 +3221,11 @@
       <c r="C31">
         <v>1.4950000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>170714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43496</v>
       </c>
@@ -3139,8 +3236,11 @@
       <c r="C32">
         <v>1.8220000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>175610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43497</v>
       </c>
@@ -3151,8 +3251,11 @@
       <c r="C33">
         <v>4.1280000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>180506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43498</v>
       </c>
@@ -3163,8 +3266,11 @@
       <c r="C34">
         <v>2.9209999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>185402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43499</v>
       </c>
@@ -3175,8 +3281,11 @@
       <c r="C35">
         <v>1.3939999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>190298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43500</v>
       </c>
@@ -3187,8 +3296,11 @@
       <c r="C36">
         <v>1.7529999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>195194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43501</v>
       </c>
@@ -3199,8 +3311,11 @@
       <c r="C37">
         <v>3.343</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>200090</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43502</v>
       </c>
@@ -3211,8 +3326,11 @@
       <c r="C38">
         <v>1.6220000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>204986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43503</v>
       </c>
@@ -3223,8 +3341,11 @@
       <c r="C39">
         <v>1.9750000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>209882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43504</v>
       </c>
@@ -3235,8 +3356,11 @@
       <c r="C40">
         <v>3.726</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>214778</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43505</v>
       </c>
@@ -3247,8 +3371,11 @@
       <c r="C41">
         <v>2.8660000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>219674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43506</v>
       </c>
@@ -3259,8 +3386,11 @@
       <c r="C42">
         <v>1.381</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>224570</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43507</v>
       </c>
@@ -3271,8 +3401,11 @@
       <c r="C43">
         <v>1.696</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>229466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43508</v>
       </c>
@@ -3283,8 +3416,11 @@
       <c r="C44">
         <v>1.577</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>234362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43509</v>
       </c>
@@ -3295,8 +3431,11 @@
       <c r="C45">
         <v>2.254</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>239258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43510</v>
       </c>
@@ -3307,8 +3446,11 @@
       <c r="C46">
         <v>3.1280000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>244154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43511</v>
       </c>
@@ -3319,8 +3461,11 @@
       <c r="C47">
         <v>4.165</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>249050</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43512</v>
       </c>
@@ -3331,8 +3476,11 @@
       <c r="C48">
         <v>3.1659999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>253946</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43513</v>
       </c>
@@ -3343,8 +3491,11 @@
       <c r="C49">
         <v>1.7010000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>258842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43514</v>
       </c>
@@ -3355,8 +3506,11 @@
       <c r="C50">
         <v>1.5369999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>263738</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43515</v>
       </c>
@@ -3367,8 +3521,11 @@
       <c r="C51">
         <v>1.2989999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>268634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43516</v>
       </c>
@@ -3379,8 +3536,11 @@
       <c r="C52">
         <v>1.764</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>273530</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43517</v>
       </c>
@@ -3391,8 +3551,11 @@
       <c r="C53">
         <v>2.532</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>278426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43518</v>
       </c>
@@ -3403,8 +3566,11 @@
       <c r="C54">
         <v>3.8610000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>283322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43519</v>
       </c>
@@ -3415,8 +3581,11 @@
       <c r="C55">
         <v>2.629</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>288218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43520</v>
       </c>
@@ -3427,8 +3596,11 @@
       <c r="C56">
         <v>2.302</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>293114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43521</v>
       </c>
@@ -3439,8 +3611,11 @@
       <c r="C57">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>298010</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43522</v>
       </c>
@@ -3451,8 +3626,11 @@
       <c r="C58">
         <v>2.121</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>302906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43523</v>
       </c>
@@ -3463,8 +3641,11 @@
       <c r="C59">
         <v>1.9550000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>307802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43524</v>
       </c>
@@ -3475,8 +3656,11 @@
       <c r="C60">
         <v>3.2519999999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>312698</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43525</v>
       </c>
@@ -3487,8 +3671,11 @@
       <c r="C61">
         <v>3.9849999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>317594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43526</v>
       </c>
@@ -3499,8 +3686,11 @@
       <c r="C62">
         <v>2.7610000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>322490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43527</v>
       </c>
@@ -3511,8 +3701,11 @@
       <c r="C63">
         <v>1.048</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>327386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43528</v>
       </c>
@@ -3523,8 +3716,11 @@
       <c r="C64">
         <v>1.4339999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>332282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43529</v>
       </c>
@@ -3535,8 +3731,11 @@
       <c r="C65">
         <v>965</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>337178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43530</v>
       </c>
@@ -3547,8 +3746,11 @@
       <c r="C66">
         <v>1.4970000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>342074</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43531</v>
       </c>
@@ -3559,8 +3761,11 @@
       <c r="C67">
         <v>1.8560000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>346970</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43532</v>
       </c>
@@ -3571,8 +3776,11 @@
       <c r="C68">
         <v>3.1840000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>351866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43533</v>
       </c>
@@ -3583,8 +3791,11 @@
       <c r="C69">
         <v>2.1269999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>356762</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43534</v>
       </c>
@@ -3595,8 +3806,11 @@
       <c r="C70">
         <v>1.5409999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>361658</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43535</v>
       </c>
@@ -3607,8 +3821,11 @@
       <c r="C71">
         <v>887</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>366554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43536</v>
       </c>
@@ -3619,8 +3836,11 @@
       <c r="C72">
         <v>1.2749999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>371450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43537</v>
       </c>
@@ -3631,8 +3851,11 @@
       <c r="C73">
         <v>1.337</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>376346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43538</v>
       </c>
@@ -3643,8 +3866,11 @@
       <c r="C74">
         <v>1.518</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>381242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43539</v>
       </c>
@@ -3655,8 +3881,11 @@
       <c r="C75">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>386138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43540</v>
       </c>
@@ -3667,8 +3896,11 @@
       <c r="C76">
         <v>1.718</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>391034</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43541</v>
       </c>
@@ -3679,8 +3911,11 @@
       <c r="C77">
         <v>857</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>395930</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43542</v>
       </c>
@@ -3691,8 +3926,11 @@
       <c r="C78">
         <v>1.0509999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>400826</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43543</v>
       </c>
@@ -3703,8 +3941,11 @@
       <c r="C79">
         <v>1.101</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>405722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43544</v>
       </c>
@@ -3715,8 +3956,11 @@
       <c r="C80">
         <v>1.3069999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>410618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43545</v>
       </c>
@@ -3727,8 +3971,11 @@
       <c r="C81">
         <v>1.8129999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>415514</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43546</v>
       </c>
@@ -3739,8 +3986,11 @@
       <c r="C82">
         <v>2.8290000000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>420410</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43547</v>
       </c>
@@ -3751,8 +4001,11 @@
       <c r="C83">
         <v>2.6030000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>425306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43548</v>
       </c>
@@ -3763,8 +4016,11 @@
       <c r="C84">
         <v>1.492</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>430202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43549</v>
       </c>
@@ -3775,8 +4031,11 @@
       <c r="C85">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>435098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43550</v>
       </c>
@@ -3787,8 +4046,11 @@
       <c r="C86">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>439994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43551</v>
       </c>
@@ -3799,8 +4061,11 @@
       <c r="C87">
         <v>2.2309999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>444890</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43552</v>
       </c>
@@ -3811,8 +4076,11 @@
       <c r="C88">
         <v>2.327</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>449786</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43553</v>
       </c>
@@ -3823,8 +4091,11 @@
       <c r="C89">
         <v>3.0379999999999998</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>454682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43554</v>
       </c>
@@ -3835,8 +4106,11 @@
       <c r="C90">
         <v>3.278</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>459578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43555</v>
       </c>
@@ -3847,8 +4121,11 @@
       <c r="C91">
         <v>3.327</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>464474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43556</v>
       </c>
@@ -3859,8 +4136,11 @@
       <c r="C92">
         <v>3.9470000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>469370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43557</v>
       </c>
@@ -3871,8 +4151,11 @@
       <c r="C93">
         <v>4.3760000000000003</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>474266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43558</v>
       </c>
@@ -3883,8 +4166,11 @@
       <c r="C94">
         <v>4.5720000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>479162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43559</v>
       </c>
@@ -3895,8 +4181,11 @@
       <c r="C95">
         <v>3.992</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>484058</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43560</v>
       </c>
@@ -3907,8 +4196,11 @@
       <c r="C96">
         <v>3.9380000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>488954</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43561</v>
       </c>
@@ -3919,8 +4211,11 @@
       <c r="C97">
         <v>3.6909999999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>493850</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43562</v>
       </c>
@@ -3931,8 +4226,11 @@
       <c r="C98">
         <v>3.4830000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>498746</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43563</v>
       </c>
@@ -3943,8 +4241,11 @@
       <c r="C99">
         <v>3.6240000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>503642</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43564</v>
       </c>
@@ -3955,8 +4256,11 @@
       <c r="C100">
         <v>4.3579999999999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>508538</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43565</v>
       </c>
@@ -3967,8 +4271,11 @@
       <c r="C101">
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>513434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43566</v>
       </c>
@@ -3979,8 +4286,11 @@
       <c r="C102">
         <v>4.359</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>518330</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43567</v>
       </c>
@@ -3991,8 +4301,11 @@
       <c r="C103">
         <v>3.7189999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>523226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43568</v>
       </c>
@@ -4003,8 +4316,11 @@
       <c r="C104">
         <v>2.6059999999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>528122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43569</v>
       </c>
@@ -4015,8 +4331,11 @@
       <c r="C105">
         <v>1.3260000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>533018</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43570</v>
       </c>
@@ -4027,8 +4346,11 @@
       <c r="C106">
         <v>909</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>537914</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43571</v>
       </c>
@@ -4039,8 +4361,11 @@
       <c r="C107">
         <v>1.1040000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>542810</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43572</v>
       </c>
@@ -4051,8 +4376,11 @@
       <c r="C108">
         <v>1.522</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>547706</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43573</v>
       </c>
@@ -4063,8 +4391,11 @@
       <c r="C109">
         <v>2.0209999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>552602</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43574</v>
       </c>
@@ -4075,8 +4406,11 @@
       <c r="C110">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>557498</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43575</v>
       </c>
@@ -4087,8 +4421,11 @@
       <c r="C111">
         <v>2.8679999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>562394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43576</v>
       </c>
@@ -4099,8 +4436,11 @@
       <c r="C112">
         <v>1.7330000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>567290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43577</v>
       </c>
@@ -4111,8 +4451,11 @@
       <c r="C113">
         <v>1.4890000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>572186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43578</v>
       </c>
@@ -4123,8 +4466,11 @@
       <c r="C114">
         <v>1.7050000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>577082</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43579</v>
       </c>
@@ -4135,8 +4481,11 @@
       <c r="C115">
         <v>1.849</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>581978</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43580</v>
       </c>
@@ -4147,8 +4496,11 @@
       <c r="C116">
         <v>2.6110000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>586874</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43581</v>
       </c>
@@ -4159,8 +4511,11 @@
       <c r="C117">
         <v>5.2069999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>591770</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43582</v>
       </c>
@@ -4171,8 +4526,11 @@
       <c r="C118">
         <v>2.9380000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>596666</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43583</v>
       </c>
@@ -4183,8 +4541,11 @@
       <c r="C119">
         <v>2.056</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>601562</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43584</v>
       </c>
@@ -4195,8 +4556,11 @@
       <c r="C120">
         <v>1.9710000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>606458</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43585</v>
       </c>
@@ -4207,8 +4571,11 @@
       <c r="C121">
         <v>2.4620000000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>611354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43586</v>
       </c>
@@ -4219,8 +4586,11 @@
       <c r="C122">
         <v>2.5840000000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>616250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43587</v>
       </c>
@@ -4231,8 +4601,11 @@
       <c r="C123">
         <v>2.9169999999999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>621146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43588</v>
       </c>
@@ -4243,8 +4616,11 @@
       <c r="C124">
         <v>5.4630000000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>626042</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43589</v>
       </c>
@@ -4255,8 +4631,11 @@
       <c r="C125">
         <v>4.1130000000000004</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>630938</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43590</v>
       </c>
@@ -4267,8 +4646,11 @@
       <c r="C126">
         <v>988</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>635834</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43591</v>
       </c>
@@ -4279,8 +4661,11 @@
       <c r="C127">
         <v>648</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>640730</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43592</v>
       </c>
@@ -4291,8 +4676,11 @@
       <c r="C128">
         <v>525</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>645626</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43593</v>
       </c>
@@ -4303,8 +4691,11 @@
       <c r="C129">
         <v>594</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>650522</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43594</v>
       </c>
@@ -4315,8 +4706,11 @@
       <c r="C130">
         <v>888</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>655418</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43595</v>
       </c>
@@ -4327,8 +4721,11 @@
       <c r="C131">
         <v>3.359</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>660314</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43596</v>
       </c>
@@ -4339,8 +4736,11 @@
       <c r="C132">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>665210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43597</v>
       </c>
@@ -4351,8 +4751,11 @@
       <c r="C133">
         <v>608</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>670106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43598</v>
       </c>
@@ -4363,8 +4766,11 @@
       <c r="C134">
         <v>535</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>675002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43599</v>
       </c>
@@ -4375,8 +4781,11 @@
       <c r="C135">
         <v>495</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>679898</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43600</v>
       </c>
@@ -4387,8 +4796,11 @@
       <c r="C136">
         <v>511</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>684794</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43601</v>
       </c>
@@ -4399,8 +4811,11 @@
       <c r="C137">
         <v>1.2430000000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>689690</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43602</v>
       </c>
@@ -4411,8 +4826,11 @@
       <c r="C138">
         <v>4.1740000000000004</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>694586</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43603</v>
       </c>
@@ -4423,8 +4841,11 @@
       <c r="C139">
         <v>2.3860000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>699482</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43604</v>
       </c>
@@ -4435,8 +4856,11 @@
       <c r="C140">
         <v>472</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>704378</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43605</v>
       </c>
@@ -4447,8 +4871,11 @@
       <c r="C141">
         <v>782</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>709274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43606</v>
       </c>
@@ -4459,8 +4886,11 @@
       <c r="C142">
         <v>625</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>714170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43607</v>
       </c>
@@ -4471,8 +4901,11 @@
       <c r="C143">
         <v>584</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>719066</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43608</v>
       </c>
@@ -4483,8 +4916,11 @@
       <c r="C144">
         <v>1.1539999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>723962</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43609</v>
       </c>
@@ -4495,8 +4931,11 @@
       <c r="C145">
         <v>4.4450000000000003</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>728858</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43610</v>
       </c>
@@ -4507,8 +4946,11 @@
       <c r="C146">
         <v>2.6269999999999998</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>733754</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43611</v>
       </c>
@@ -4519,8 +4961,11 @@
       <c r="C147">
         <v>771</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>738650.00000000105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43612</v>
       </c>
@@ -4531,8 +4976,11 @@
       <c r="C148">
         <v>701</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>743546.00000000105</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43613</v>
       </c>
@@ -4543,8 +4991,11 @@
       <c r="C149">
         <v>795</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>748442.00000000105</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43614</v>
       </c>
@@ -4555,8 +5006,11 @@
       <c r="C150">
         <v>766</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>753338.00000000105</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43615</v>
       </c>
@@ -4567,8 +5021,11 @@
       <c r="C151">
         <v>1.4990000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>758234.00000000105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43616</v>
       </c>
@@ -4579,8 +5036,11 @@
       <c r="C152">
         <v>5.827</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>763130.00000000105</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43617</v>
       </c>
@@ -4591,8 +5051,11 @@
       <c r="C153">
         <v>4.2629999999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>768026.00000000105</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43618</v>
       </c>
@@ -4603,8 +5066,11 @@
       <c r="C154">
         <v>2.9630000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>772922.00000000105</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43619</v>
       </c>
@@ -4615,8 +5081,11 @@
       <c r="C155">
         <v>5.2089999999999996</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>777818.00000000105</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43620</v>
       </c>
@@ -4627,8 +5096,11 @@
       <c r="C156">
         <v>7.2030000000000003</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>782714.00000000105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43621</v>
       </c>
@@ -4639,8 +5111,11 @@
       <c r="C157">
         <v>8.0389999999999997</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>787610.00000000105</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43622</v>
       </c>
@@ -4651,8 +5126,11 @@
       <c r="C158">
         <v>9.3409999999999993</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>792506.00000000105</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43623</v>
       </c>
@@ -4663,8 +5141,11 @@
       <c r="C159">
         <v>7.165</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>797402.00000000105</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43624</v>
       </c>
@@ -4675,8 +5156,11 @@
       <c r="C160">
         <v>3.931</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>802298.00000000105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43625</v>
       </c>
@@ -4687,8 +5171,11 @@
       <c r="C161">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>807194.00000000105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43626</v>
       </c>
@@ -4699,8 +5186,11 @@
       <c r="C162">
         <v>1.548</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>812090.00000000105</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43627</v>
       </c>
@@ -4711,8 +5201,11 @@
       <c r="C163">
         <v>1.3919999999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>816986.00000000105</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43628</v>
       </c>
@@ -4723,8 +5216,11 @@
       <c r="C164">
         <v>1.7250000000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>821882.00000000105</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43629</v>
       </c>
@@ -4735,8 +5231,11 @@
       <c r="C165">
         <v>2.5030000000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>826778.00000000105</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43630</v>
       </c>
@@ -4747,8 +5246,11 @@
       <c r="C166">
         <v>4.5339999999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>831674.00000000105</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43631</v>
       </c>
@@ -4759,8 +5261,11 @@
       <c r="C167">
         <v>3.1909999999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>836570.00000000105</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43632</v>
       </c>
@@ -4771,8 +5276,11 @@
       <c r="C168">
         <v>1.2350000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>841466.00000000105</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43633</v>
       </c>
@@ -4783,8 +5291,11 @@
       <c r="C169">
         <v>1.8819999999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>846362.00000000105</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43634</v>
       </c>
@@ -4795,8 +5306,11 @@
       <c r="C170">
         <v>1.5820000000000001</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>851258.00000000105</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43635</v>
       </c>
@@ -4807,8 +5321,11 @@
       <c r="C171">
         <v>1.5820000000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>856154.00000000105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43636</v>
       </c>
@@ -4819,8 +5336,11 @@
       <c r="C172">
         <v>2.0510000000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>861050.00000000105</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43637</v>
       </c>
@@ -4831,8 +5351,11 @@
       <c r="C173">
         <v>5.94</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>865946.00000000105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43638</v>
       </c>
@@ -4843,8 +5366,11 @@
       <c r="C174">
         <v>3.165</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>870842.00000000105</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43639</v>
       </c>
@@ -4855,8 +5381,11 @@
       <c r="C175">
         <v>1.4279999999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>875738.00000000105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43640</v>
       </c>
@@ -4867,8 +5396,11 @@
       <c r="C176">
         <v>1.651</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>880634.00000000105</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43641</v>
       </c>
@@ -4879,8 +5411,11 @@
       <c r="C177">
         <v>1.9119999999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>885530.00000000105</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43642</v>
       </c>
@@ -4891,8 +5426,11 @@
       <c r="C178">
         <v>2.286</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>890426.00000000105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43643</v>
       </c>
@@ -4903,8 +5441,11 @@
       <c r="C179">
         <v>2.8719999999999999</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>895322.00000000105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43644</v>
       </c>
@@ -4915,8 +5456,11 @@
       <c r="C180">
         <v>6.2110000000000003</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>900218.00000000105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43645</v>
       </c>
@@ -4927,8 +5471,11 @@
       <c r="C181">
         <v>4.7510000000000003</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>905114.00000000105</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43646</v>
       </c>
@@ -4939,8 +5486,11 @@
       <c r="C182">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>910010.00000000105</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43647</v>
       </c>
@@ -4951,8 +5501,11 @@
       <c r="C183">
         <v>3.1360000000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>914906.00000000105</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43648</v>
       </c>
@@ -4963,8 +5516,11 @@
       <c r="C184">
         <v>3.2589999999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>919802.00000000105</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43649</v>
       </c>
@@ -4975,8 +5531,11 @@
       <c r="C185">
         <v>3.0960000000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>924698.00000000105</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43650</v>
       </c>
@@ -4987,8 +5546,11 @@
       <c r="C186">
         <v>3.048</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>929594.00000000105</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43651</v>
       </c>
@@ -4999,8 +5561,11 @@
       <c r="C187">
         <v>6.0270000000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>934490.00000000105</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43652</v>
       </c>
@@ -5011,8 +5576,11 @@
       <c r="C188">
         <v>4.78</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>939386.00000000105</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43653</v>
       </c>
@@ -5023,8 +5591,11 @@
       <c r="C189">
         <v>2.8719999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>944282.00000000105</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43654</v>
       </c>
@@ -5035,8 +5606,11 @@
       <c r="C190">
         <v>3.073</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>949178.00000000105</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43655</v>
       </c>
@@ -5047,8 +5621,11 @@
       <c r="C191">
         <v>3.3069999999999999</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>954074.00000000105</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43656</v>
       </c>
@@ -5059,8 +5636,11 @@
       <c r="C192">
         <v>3.3879999999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>958970.00000000105</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43657</v>
       </c>
@@ -5071,8 +5651,11 @@
       <c r="C193">
         <v>3.2839999999999998</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>963866.00000000105</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43658</v>
       </c>
@@ -5083,8 +5666,11 @@
       <c r="C194">
         <v>5.6689999999999996</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>968762.00000000105</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43659</v>
       </c>
@@ -5095,8 +5681,11 @@
       <c r="C195">
         <v>5.4740000000000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>973658.00000000105</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43660</v>
       </c>
@@ -5107,8 +5696,11 @@
       <c r="C196">
         <v>3.0819999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>978554.00000000105</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43661</v>
       </c>
@@ -5119,8 +5711,11 @@
       <c r="C197">
         <v>3.875</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>983450.00000000105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43662</v>
       </c>
@@ -5131,8 +5726,11 @@
       <c r="C198">
         <v>3.8780000000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>988346.00000000105</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43663</v>
       </c>
@@ -5143,8 +5741,11 @@
       <c r="C199">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>993242.00000000105</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43664</v>
       </c>
@@ -5155,8 +5756,11 @@
       <c r="C200">
         <v>3.4209999999999998</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>998138.00000000105</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43665</v>
       </c>
@@ -5167,8 +5771,11 @@
       <c r="C201">
         <v>5.0869999999999997</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>1003034</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43666</v>
       </c>
@@ -5179,8 +5786,11 @@
       <c r="C202">
         <v>4.4669999999999996</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>1007930</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43667</v>
       </c>
@@ -5191,8 +5801,11 @@
       <c r="C203">
         <v>2.9630000000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>1012826</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43668</v>
       </c>
@@ -5203,8 +5816,11 @@
       <c r="C204">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>1017722</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43669</v>
       </c>
@@ -5215,8 +5831,11 @@
       <c r="C205">
         <v>4.0810000000000004</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>1022618</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43670</v>
       </c>
@@ -5227,8 +5846,11 @@
       <c r="C206">
         <v>3.851</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>1027514</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43671</v>
       </c>
@@ -5239,8 +5861,11 @@
       <c r="C207">
         <v>4.3209999999999997</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>1032410</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>43672</v>
       </c>
@@ -5251,8 +5876,11 @@
       <c r="C208">
         <v>6.024</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>1037306</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>43673</v>
       </c>
@@ -5263,8 +5891,11 @@
       <c r="C209">
         <v>5.5839999999999996</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>1042202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>43674</v>
       </c>
@@ -5275,8 +5906,11 @@
       <c r="C210">
         <v>3.9820000000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>1047098</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>43675</v>
       </c>
@@ -5287,8 +5921,11 @@
       <c r="C211">
         <v>4.3849999999999998</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>1051994</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>43676</v>
       </c>
@@ -5299,8 +5936,11 @@
       <c r="C212">
         <v>4.5819999999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>1056890</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>43677</v>
       </c>
@@ -5311,8 +5951,11 @@
       <c r="C213">
         <v>4.4619999999999997</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>1061786</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>43678</v>
       </c>
@@ -5323,8 +5966,11 @@
       <c r="C214">
         <v>3.617</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>1066682</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>43679</v>
       </c>
@@ -5335,8 +5981,11 @@
       <c r="C215">
         <v>4.1159999999999997</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>1071578</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43680</v>
       </c>
@@ -5347,8 +5996,11 @@
       <c r="C216">
         <v>3.742</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>1076474</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>43681</v>
       </c>
@@ -5359,8 +6011,11 @@
       <c r="C217">
         <v>3.1419999999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>1081370</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>43682</v>
       </c>
@@ -5371,8 +6026,11 @@
       <c r="C218">
         <v>3.097</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>1086266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>43683</v>
       </c>
@@ -5383,8 +6041,11 @@
       <c r="C219">
         <v>3.3079999999999998</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>1091162</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43684</v>
       </c>
@@ -5395,8 +6056,11 @@
       <c r="C220">
         <v>3.0470000000000002</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>1096058</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>43685</v>
       </c>
@@ -5407,8 +6071,11 @@
       <c r="C221">
         <v>3.0710000000000002</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>1100954</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>43686</v>
       </c>
@@ -5419,8 +6086,11 @@
       <c r="C222">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>1105850</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>43687</v>
       </c>
@@ -5431,8 +6101,11 @@
       <c r="C223">
         <v>3.6469999999999998</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>1110746</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>43688</v>
       </c>
@@ -5443,8 +6116,11 @@
       <c r="C224">
         <v>5.2510000000000003</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>1115642</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>43689</v>
       </c>
@@ -5455,8 +6131,11 @@
       <c r="C225">
         <v>6.8879999999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>1120538</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>43690</v>
       </c>
@@ -5467,8 +6146,11 @@
       <c r="C226">
         <v>6.0010000000000003</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>1125434</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>43691</v>
       </c>
@@ -5479,8 +6161,11 @@
       <c r="C227">
         <v>5.2759999999999998</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>1130330</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>43692</v>
       </c>
@@ -5491,8 +6176,11 @@
       <c r="C228">
         <v>4.8170000000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>1135226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>43693</v>
       </c>
@@ -5503,8 +6191,11 @@
       <c r="C229">
         <v>4.5650000000000004</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>1140122</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>43694</v>
       </c>
@@ -5515,8 +6206,11 @@
       <c r="C230">
         <v>3.7549999999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>1145018</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>43695</v>
       </c>
@@ -5527,8 +6221,11 @@
       <c r="C231">
         <v>3.4750000000000001</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>1149914</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>43696</v>
       </c>
@@ -5539,8 +6236,11 @@
       <c r="C232">
         <v>3.9860000000000002</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>1154810</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>43697</v>
       </c>
@@ -5551,8 +6251,11 @@
       <c r="C233">
         <v>3.9460000000000002</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>1159706</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>43698</v>
       </c>
@@ -5563,8 +6266,11 @@
       <c r="C234">
         <v>4.3890000000000002</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>1164602</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>43699</v>
       </c>
@@ -5575,8 +6281,11 @@
       <c r="C235">
         <v>4.1420000000000003</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>1169498</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>43700</v>
       </c>
@@ -5587,8 +6296,11 @@
       <c r="C236">
         <v>4.8540000000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>1174394</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>43701</v>
       </c>
@@ -5599,8 +6311,11 @@
       <c r="C237">
         <v>3.7730000000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>1179290</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>43702</v>
       </c>
@@ -5611,8 +6326,11 @@
       <c r="C238">
         <v>2.7029999999999998</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>1184186</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>43703</v>
       </c>
@@ -5623,8 +6341,11 @@
       <c r="C239">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>1189082</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>43704</v>
       </c>
@@ -5635,8 +6356,11 @@
       <c r="C240">
         <v>3.5880000000000001</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>1193978</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>43705</v>
       </c>
@@ -5647,8 +6371,11 @@
       <c r="C241">
         <v>3.419</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>1198874</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>43706</v>
       </c>
@@ -5659,8 +6386,11 @@
       <c r="C242">
         <v>3.4060000000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>1203770</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>43707</v>
       </c>
@@ -5671,8 +6401,11 @@
       <c r="C243">
         <v>5.1630000000000003</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>1208666</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>43708</v>
       </c>
@@ -5683,8 +6416,11 @@
       <c r="C244">
         <v>3.9670000000000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>1213562</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>43709</v>
       </c>
@@ -5695,8 +6431,11 @@
       <c r="C245">
         <v>1.3280000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>1218458</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>43710</v>
       </c>
@@ -5707,8 +6446,11 @@
       <c r="C246">
         <v>758</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>1223354</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>43711</v>
       </c>
@@ -5719,8 +6461,11 @@
       <c r="C247">
         <v>711</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>1228250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>43712</v>
       </c>
@@ -5731,8 +6476,11 @@
       <c r="C248">
         <v>833</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>1233146</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>43713</v>
       </c>
@@ -5743,8 +6491,11 @@
       <c r="C249">
         <v>1.212</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>1238042</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>43714</v>
       </c>
@@ -5755,8 +6506,11 @@
       <c r="C250">
         <v>3.6179999999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>1242938</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>43715</v>
       </c>
@@ -5767,8 +6521,11 @@
       <c r="C251">
         <v>2.528</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>1247834</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>43716</v>
       </c>
@@ -5779,8 +6536,11 @@
       <c r="C252">
         <v>703</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>1252730</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>43717</v>
       </c>
@@ -5791,8 +6551,11 @@
       <c r="C253">
         <v>635</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>1257626</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>43718</v>
       </c>
@@ -5803,8 +6566,11 @@
       <c r="C254">
         <v>644</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <v>1262522</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>43719</v>
       </c>
@@ -5815,8 +6581,11 @@
       <c r="C255">
         <v>684</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>1267418</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>43720</v>
       </c>
@@ -5827,8 +6596,11 @@
       <c r="C256">
         <v>1.0580000000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>1272314</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>43721</v>
       </c>
@@ -5839,8 +6611,11 @@
       <c r="C257">
         <v>4.2519999999999998</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>1277210</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>43722</v>
       </c>
@@ -5851,8 +6626,11 @@
       <c r="C258">
         <v>2.5529999999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>1282106</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>43723</v>
       </c>
@@ -5863,8 +6641,11 @@
       <c r="C259">
         <v>575</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>1287002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>43724</v>
       </c>
@@ -5875,8 +6656,11 @@
       <c r="C260">
         <v>663</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>1291898</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>43725</v>
       </c>
@@ -5887,8 +6671,11 @@
       <c r="C261">
         <v>606</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>1296794</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>43726</v>
       </c>
@@ -5899,8 +6686,11 @@
       <c r="C262">
         <v>749</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>1301690</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>43727</v>
       </c>
@@ -5911,8 +6701,11 @@
       <c r="C263">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>1306586</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>43728</v>
       </c>
@@ -5923,8 +6716,11 @@
       <c r="C264">
         <v>4.9109999999999996</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>1311482</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>43729</v>
       </c>
@@ -5935,8 +6731,11 @@
       <c r="C265">
         <v>6.7080000000000002</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>1316378</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>43730</v>
       </c>
@@ -5947,8 +6746,11 @@
       <c r="C266">
         <v>1.399</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>1321274</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>43731</v>
       </c>
@@ -5959,8 +6761,11 @@
       <c r="C267">
         <v>1.1160000000000001</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>1326170</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>43732</v>
       </c>
@@ -5971,8 +6776,11 @@
       <c r="C268">
         <v>753</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>1331066</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>43733</v>
       </c>
@@ -5983,8 +6791,11 @@
       <c r="C269">
         <v>657</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>1335962</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>43734</v>
       </c>
@@ -5995,8 +6806,11 @@
       <c r="C270">
         <v>1.395</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>1340858</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>43735</v>
       </c>
@@ -6007,8 +6821,11 @@
       <c r="C271">
         <v>4.306</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>1345754</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>43736</v>
       </c>
@@ -6019,8 +6836,11 @@
       <c r="C272">
         <v>2.9420000000000002</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>1350650</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>43737</v>
       </c>
@@ -6031,8 +6851,11 @@
       <c r="C273">
         <v>752</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>1355546</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>43738</v>
       </c>
@@ -6043,8 +6866,11 @@
       <c r="C274">
         <v>961</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>1360442</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>43739</v>
       </c>
@@ -6055,8 +6881,11 @@
       <c r="C275">
         <v>783</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>1365338</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>43740</v>
       </c>
@@ -6067,8 +6896,11 @@
       <c r="C276">
         <v>1.204</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>1370234</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>43741</v>
       </c>
@@ -6079,8 +6911,11 @@
       <c r="C277">
         <v>2.117</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <v>1375130</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>43742</v>
       </c>
@@ -6091,8 +6926,11 @@
       <c r="C278">
         <v>4.0449999999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <v>1380026</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>43743</v>
       </c>
@@ -6103,8 +6941,11 @@
       <c r="C279">
         <v>2.5049999999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <v>1384922</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>43744</v>
       </c>
@@ -6115,8 +6956,11 @@
       <c r="C280">
         <v>1.135</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <v>1389818</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>43745</v>
       </c>
@@ -6127,8 +6971,11 @@
       <c r="C281">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <v>1394714</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>43746</v>
       </c>
@@ -6139,8 +6986,11 @@
       <c r="C282">
         <v>1.0109999999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <v>1399610</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>43747</v>
       </c>
@@ -6151,8 +7001,11 @@
       <c r="C283">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>1404506</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>43748</v>
       </c>
@@ -6163,8 +7016,11 @@
       <c r="C284">
         <v>1.4359999999999999</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>1409402</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>43749</v>
       </c>
@@ -6175,8 +7031,11 @@
       <c r="C285">
         <v>3.9369999999999998</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>1414298</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>43750</v>
       </c>
@@ -6187,8 +7046,11 @@
       <c r="C286">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>1419194</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>43751</v>
       </c>
@@ -6199,8 +7061,11 @@
       <c r="C287">
         <v>811</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <v>1424090</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>43752</v>
       </c>
@@ -6211,8 +7076,11 @@
       <c r="C288">
         <v>977</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <v>1428986</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>43753</v>
       </c>
@@ -6223,8 +7091,11 @@
       <c r="C289">
         <v>700</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <v>1433882</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>43754</v>
       </c>
@@ -6235,8 +7106,11 @@
       <c r="C290">
         <v>772</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <v>1438778</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>43755</v>
       </c>
@@ -6247,8 +7121,11 @@
       <c r="C291">
         <v>1.452</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <v>1443674</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>43756</v>
       </c>
@@ -6259,8 +7136,11 @@
       <c r="C292">
         <v>3.3069999999999999</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <v>1448570</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>43757</v>
       </c>
@@ -6271,8 +7151,11 @@
       <c r="C293">
         <v>2.5579999999999998</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <v>1453466</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>43758</v>
       </c>
@@ -6283,8 +7166,11 @@
       <c r="C294">
         <v>1.972</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294">
+        <v>1458362</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>43759</v>
       </c>
@@ -6295,8 +7181,11 @@
       <c r="C295">
         <v>1.833</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295">
+        <v>1463258</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>43760</v>
       </c>
@@ -6307,8 +7196,11 @@
       <c r="C296">
         <v>1.9530000000000001</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <v>1468154</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>43761</v>
       </c>
@@ -6319,8 +7211,11 @@
       <c r="C297">
         <v>2.3010000000000002</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <v>1473050</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>43762</v>
       </c>
@@ -6331,8 +7226,11 @@
       <c r="C298">
         <v>2.5619999999999998</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>1477946</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>43763</v>
       </c>
@@ -6343,8 +7241,11 @@
       <c r="C299">
         <v>3.1949999999999998</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <v>1482842</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>43764</v>
       </c>
@@ -6355,8 +7256,11 @@
       <c r="C300">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <v>1487738</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>43765</v>
       </c>
@@ -6367,8 +7271,11 @@
       <c r="C301">
         <v>1.9890000000000001</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <v>1492634</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>43766</v>
       </c>
@@ -6379,8 +7286,11 @@
       <c r="C302">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <v>1497530</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>43767</v>
       </c>
@@ -6391,8 +7301,11 @@
       <c r="C303">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <v>1502426</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>43768</v>
       </c>
@@ -6403,8 +7316,11 @@
       <c r="C304">
         <v>2.4929999999999999</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304">
+        <v>1507322</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>43769</v>
       </c>
@@ -6415,8 +7331,11 @@
       <c r="C305">
         <v>3.1509999999999998</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <v>1512218</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>43770</v>
       </c>
@@ -6427,8 +7346,11 @@
       <c r="C306">
         <v>3.9359999999999999</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>1517114</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>43771</v>
       </c>
@@ -6439,8 +7361,11 @@
       <c r="C307">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <v>1522010</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>43772</v>
       </c>
@@ -6451,8 +7376,11 @@
       <c r="C308">
         <v>1.5960000000000001</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <v>1526906</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>43773</v>
       </c>
@@ -6463,8 +7391,11 @@
       <c r="C309">
         <v>1.649</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <v>1531802</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>43774</v>
       </c>
@@ -6475,8 +7406,11 @@
       <c r="C310">
         <v>1.3540000000000001</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <v>1536698</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>43775</v>
       </c>
@@ -6487,8 +7421,11 @@
       <c r="C311">
         <v>1.387</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <v>1541594</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>43776</v>
       </c>
@@ -6499,8 +7436,11 @@
       <c r="C312">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <v>1546490</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>43777</v>
       </c>
@@ -6511,8 +7451,11 @@
       <c r="C313">
         <v>3.3439999999999999</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <v>1551386</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>43778</v>
       </c>
@@ -6523,8 +7466,11 @@
       <c r="C314">
         <v>3.234</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <v>1556282</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>43779</v>
       </c>
@@ -6535,8 +7481,11 @@
       <c r="C315">
         <v>622</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <v>1561178</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>43780</v>
       </c>
@@ -6547,8 +7496,11 @@
       <c r="C316">
         <v>766</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316">
+        <v>1566074</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>43781</v>
       </c>
@@ -6559,8 +7511,11 @@
       <c r="C317">
         <v>1.1679999999999999</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <v>1570970</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>43782</v>
       </c>
@@ -6571,8 +7526,11 @@
       <c r="C318">
         <v>943</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>1575866</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>43783</v>
       </c>
@@ -6583,8 +7541,11 @@
       <c r="C319">
         <v>1.3140000000000001</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <v>1580762</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>43784</v>
       </c>
@@ -6595,8 +7556,11 @@
       <c r="C320">
         <v>2.6110000000000002</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>1585658</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>43785</v>
       </c>
@@ -6607,8 +7571,11 @@
       <c r="C321">
         <v>1.9630000000000001</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>1590554</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>43786</v>
       </c>
@@ -6619,8 +7586,11 @@
       <c r="C322">
         <v>1.1160000000000001</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <v>1595450</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>43787</v>
       </c>
@@ -6631,8 +7601,11 @@
       <c r="C323">
         <v>877</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <v>1600346</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>43788</v>
       </c>
@@ -6643,8 +7616,11 @@
       <c r="C324">
         <v>959</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <v>1605242</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>43790</v>
       </c>
@@ -6655,8 +7631,11 @@
       <c r="C325">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <v>1610138</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>43791</v>
       </c>
@@ -6667,8 +7646,11 @@
       <c r="C326">
         <v>2.0430000000000001</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326">
+        <v>1615034</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>43792</v>
       </c>
@@ -6679,8 +7661,11 @@
       <c r="C327">
         <v>7.0389999999999997</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <v>1619930</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>43793</v>
       </c>
@@ -6691,8 +7676,11 @@
       <c r="C328">
         <v>1.0289999999999999</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <v>1624826</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>43794</v>
       </c>
@@ -6703,8 +7691,11 @@
       <c r="C329">
         <v>1.5109999999999999</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <v>1629722</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>43795</v>
       </c>
@@ -6715,8 +7706,11 @@
       <c r="C330">
         <v>1.165</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <v>1634618</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>43796</v>
       </c>
@@ -6727,8 +7721,11 @@
       <c r="C331">
         <v>1.087</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <v>1639514</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>43797</v>
       </c>
@@ -6739,8 +7736,11 @@
       <c r="C332">
         <v>1.7549999999999999</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332">
+        <v>1644410</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>43798</v>
       </c>
@@ -6751,8 +7751,11 @@
       <c r="C333">
         <v>2.7730000000000001</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <v>1649306</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>43799</v>
       </c>
@@ -6763,8 +7766,11 @@
       <c r="C334">
         <v>3.0779999999999998</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <v>1654202</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>43800</v>
       </c>
@@ -6775,8 +7781,11 @@
       <c r="C335">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <v>1659098</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>43801</v>
       </c>
@@ -6787,8 +7796,11 @@
       <c r="C336">
         <v>3.5329999999999999</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336">
+        <v>1663994</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>43802</v>
       </c>
@@ -6799,8 +7811,11 @@
       <c r="C337">
         <v>1.752</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337">
+        <v>1668890</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>43803</v>
       </c>
@@ -6811,8 +7826,11 @@
       <c r="C338">
         <v>1.097</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338">
+        <v>1673786</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>43804</v>
       </c>
@@ -6823,8 +7841,11 @@
       <c r="C339">
         <v>1.113</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <v>1678682</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>43805</v>
       </c>
@@ -6835,8 +7856,11 @@
       <c r="C340">
         <v>6.351</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <v>1683578</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>43806</v>
       </c>
@@ -6847,8 +7871,11 @@
       <c r="C341">
         <v>1.4019999999999999</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <v>1688474</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>43807</v>
       </c>
@@ -6859,8 +7886,11 @@
       <c r="C342">
         <v>1.2509999999999999</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <v>1693370</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>43808</v>
       </c>
@@ -6871,8 +7901,11 @@
       <c r="C343">
         <v>1.7969999999999999</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <v>1698266</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>43809</v>
       </c>
@@ -6883,8 +7916,11 @@
       <c r="C344">
         <v>1.4339999999999999</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344">
+        <v>1703162</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>43810</v>
       </c>
@@ -6895,8 +7931,11 @@
       <c r="C345">
         <v>1.3360000000000001</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <v>1708058</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>43811</v>
       </c>
@@ -6907,8 +7946,11 @@
       <c r="C346">
         <v>1.5009999999999999</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <v>1712954</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>43812</v>
       </c>
@@ -6919,8 +7961,11 @@
       <c r="C347">
         <v>2.5289999999999999</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <v>1717850</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>43813</v>
       </c>
@@ -6931,8 +7976,11 @@
       <c r="C348">
         <v>2.2469999999999999</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <v>1722746</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>43814</v>
       </c>
@@ -6943,8 +7991,11 @@
       <c r="C349">
         <v>2.6059999999999999</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <v>1727642</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>43815</v>
       </c>
@@ -6955,8 +8006,11 @@
       <c r="C350">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <v>1732538</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>43816</v>
       </c>
@@ -6967,8 +8021,11 @@
       <c r="C351">
         <v>2.0569999999999999</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <v>1737434</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>43817</v>
       </c>
@@ -6979,8 +8036,11 @@
       <c r="C352">
         <v>2.4340000000000002</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <v>1742330</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>43818</v>
       </c>
@@ -6991,8 +8051,11 @@
       <c r="C353">
         <v>2.2709999999999999</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <v>1747226</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>43819</v>
       </c>
@@ -7003,8 +8066,11 @@
       <c r="C354">
         <v>3.3679999999999999</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <v>1752122</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>43820</v>
       </c>
@@ -7015,8 +8081,11 @@
       <c r="C355">
         <v>4.0990000000000002</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <v>1757018</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>43821</v>
       </c>
@@ -7027,8 +8096,11 @@
       <c r="C356">
         <v>4.069</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <v>1761914</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>43822</v>
       </c>
@@ -7039,8 +8111,11 @@
       <c r="C357">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <v>1766810</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>43823</v>
       </c>
@@ -7051,8 +8126,11 @@
       <c r="C358">
         <v>5.1360000000000001</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358">
+        <v>1771706</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>43824</v>
       </c>
@@ -7063,8 +8141,11 @@
       <c r="C359">
         <v>5.4859999999999998</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359">
+        <v>1776602</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>43825</v>
       </c>
@@ -7075,8 +8156,11 @@
       <c r="C360">
         <v>5.8090000000000002</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <v>1781498</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>43826</v>
       </c>
@@ -7087,8 +8171,11 @@
       <c r="C361">
         <v>6.6260000000000003</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <v>1786394</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>43827</v>
       </c>
@@ -7099,8 +8186,11 @@
       <c r="C362">
         <v>6.5890000000000004</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <v>1791290</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>43828</v>
       </c>
@@ -7111,8 +8201,11 @@
       <c r="C363">
         <v>6.8460000000000001</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <v>1796186</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>43829</v>
       </c>
@@ -7123,8 +8216,11 @@
       <c r="C364">
         <v>7.5469999999999997</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <v>1801082</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>43830</v>
       </c>
@@ -7132,11 +8228,14 @@
         <f t="shared" si="5"/>
         <v>43831</v>
       </c>
-      <c r="C365" s="33">
+      <c r="C365" s="24">
         <v>5.4939999999999998</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <v>1805978</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>43831</v>
       </c>

--- a/Input_template.xlsx
+++ b/Input_template.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Tabet\Documents\ENOVA\MVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nramirez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F7E19-C47C-4247-9942-4A62C50E6314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="16065" windowHeight="4695" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_location" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="_location" sheetId="2" r:id="rId1"/>
     <sheet name="_type" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="_units" sheetId="9" state="hidden" r:id="rId3"/>
     <sheet name="Project" sheetId="1" r:id="rId4"/>
@@ -37,7 +38,7 @@
     <definedName name="Transportation">_type!$H$2:$H$8</definedName>
     <definedName name="Water">_units!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,12 +59,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nicolas Ramirez</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
   <si>
     <t>Locator</t>
   </si>
@@ -440,15 +441,30 @@
   </si>
   <si>
     <t>My CDD</t>
+  </si>
+  <si>
+    <t>TRY final</t>
+  </si>
+  <si>
+    <t>Riyadh (Saudi Arabia)</t>
+  </si>
+  <si>
+    <t>Mekkah (Saudi Arabia)</t>
+  </si>
+  <si>
+    <t>Jeddah (Saudi Arabia)</t>
+  </si>
+  <si>
+    <t>SAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#\ \m"/>
     <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -642,11 +658,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,9 +675,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -691,9 +704,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -703,19 +713,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,9 +755,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -849,51 +858,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="_coords" displayName="_coords" ref="A1:M5" totalsRowShown="0">
-  <autoFilter ref="A1:M5"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Locator"/>
-    <tableColumn id="2" name="Dubai (UAE)"/>
-    <tableColumn id="3" name="Abu Dhabi (UAE)"/>
-    <tableColumn id="4" name="Al Ain (UAE)"/>
-    <tableColumn id="5" name="Sharjah (UAE)"/>
-    <tableColumn id="6" name="Fujairah (UAE)"/>
-    <tableColumn id="7" name="Ras Al Khaimah (UAE)"/>
-    <tableColumn id="8" name="Muscat (Oman)"/>
-    <tableColumn id="9" name="Beirut (Lebanon)"/>
-    <tableColumn id="10" name="Bahrain (Bahrain)"/>
-    <tableColumn id="11" name="Cairo (Egypt)"/>
-    <tableColumn id="12" name="Alexandria (Egypt)"/>
-    <tableColumn id="13" name="Istanbul (Turkey)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_coords" displayName="_coords" ref="A1:P5" totalsRowShown="0">
+  <autoFilter ref="A1:P5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Locator"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dubai (UAE)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Abu Dhabi (UAE)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Al Ain (UAE)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sharjah (UAE)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fujairah (UAE)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ras Al Khaimah (UAE)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Muscat (Oman)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Beirut (Lebanon)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Bahrain (Bahrain)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Cairo (Egypt)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Alexandria (Egypt)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Istanbul (Turkey)"/>
+    <tableColumn id="14" xr3:uid="{1E85D2BD-70B8-47D9-923D-659B63C5E664}" name="Riyadh (Saudi Arabia)"/>
+    <tableColumn id="15" xr3:uid="{3BD5D34E-8E2F-45A4-85A6-8AD83975A390}" name="Mekkah (Saudi Arabia)"/>
+    <tableColumn id="16" xr3:uid="{9F971C0F-D582-4CDD-824C-DF03D2D186C7}" name="Jeddah (Saudi Arabia)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Baseline" displayName="Baseline" ref="A1:C54" totalsRowShown="0">
-  <autoFilter ref="A1:C54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Baseline" displayName="Baseline" ref="A1:C55" totalsRowShown="0">
+  <autoFilter ref="A1:C55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="From (incl)" dataDxfId="5"/>
-    <tableColumn id="3" name="To (excl)" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="From (incl)" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="To (excl)" dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(A3),"",A3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="TRH" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TRH" dataDxfId="3" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Variables" displayName="Variables" ref="A1:D365" totalsRowShown="0">
-  <autoFilter ref="A1:D365"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Variables" displayName="Variables" ref="A1:D366" totalsRowShown="0">
+  <autoFilter ref="A1:D366" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="From (incl)" dataDxfId="2"/>
-    <tableColumn id="3" name="To (excl)" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="From (incl)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="To (excl)" dataDxfId="1">
       <calculatedColumnFormula>IF(ISBLANK(A3),"",A3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Footfall" dataDxfId="0"/>
-    <tableColumn id="2" name="My CDD"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Footfall" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="My CDD"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1161,25 +1173,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1219,8 +1240,17 @@
       <c r="M1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1260,8 +1290,17 @@
       <c r="M2">
         <v>41.262222219999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>24.714381708727998</v>
+      </c>
+      <c r="O2">
+        <v>21.4243188339086</v>
+      </c>
+      <c r="P2">
+        <v>21.487810778410601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1301,8 +1340,17 @@
       <c r="M3">
         <v>28.72777778</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>46.676320511384702</v>
+      </c>
+      <c r="O3">
+        <v>39.825108692593197</v>
+      </c>
+      <c r="P3">
+        <v>39.1892937550613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1373,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1364,6 +1412,15 @@
       </c>
       <c r="M5" t="s">
         <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1578,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1651,11 +1708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H17:H18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1721,7 @@
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.140625" style="2" customWidth="1"/>
@@ -1674,275 +1731,275 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>5</v>
+      <c r="D2" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="16" t="s">
+      <c r="E3" s="5"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>80</v>
+      <c r="I3" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="16" t="s">
+      <c r="E4" s="5"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="13">
-        <f>INDEX(_location!A2:G2,MATCH(Project!$I$3,_coords[#Headers],0))</f>
-        <v>25.252777779999999</v>
+      <c r="I4" s="12">
+        <f>INDEX(_location!A2:Z2,MATCH(Project!$I$3,_coords[#Headers],0))</f>
+        <v>23.601538600000001</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="5"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="13">
-        <f>INDEX(_location!A3:G3,MATCH(Project!$I$3,_coords[#Headers],0))</f>
-        <v>55.36444444</v>
+      <c r="I5" s="12">
+        <f>INDEX(_location!A3:Z3,MATCH(Project!$I$3,_coords[#Headers],0))</f>
+        <v>58.289937600000002</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2003</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="17" t="s">
+      <c r="E6" s="5"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="14">
-        <f>INDEX(_location!A4:G4,MATCH(Project!$I$3,_coords[#Headers],0))</f>
-        <v>27</v>
+      <c r="I6" s="13">
+        <f>INDEX(_location!A4:Z4,MATCH(Project!$I$3,_coords[#Headers],0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>18787</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>78878</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>43526</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="20">
         <v>43792</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="3" t="str">
         <f>D3</f>
         <v>Test</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <v>200000</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E21" s="5" t="str">
         <f>E19</f>
         <v>MWh</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="5" t="str">
+      <c r="D22" s="3" t="str">
         <f>INDEX(_location!A5:M5,MATCH(Project!I3,_coords[#Headers],0))</f>
-        <v>AED</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>OMR</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E23" s="7" t="str">
         <f>D22&amp;"/"&amp;E19</f>
-        <v>AED/MWh</v>
+        <v>OMR/MWh</v>
       </c>
     </row>
   </sheetData>
@@ -1992,40 +2049,40 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>INDIRECT(SUBSTITUTE(D4," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"N/A,Air-cooled chiller,Water-cooled chiller,DX,District cooling"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"N/A,Electricity (&gt;1 MW),Electricity (&gt;10 MW)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"N/A,Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E9" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"m2,ft2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"Option B,Option C,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="User input" error="Custom utility chosen. Are you sure? If not, chose from the dropdown list." sqref="D19">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="User input" error="Custom utility chosen. Are you sure? If not, chose from the dropdown list." sqref="D19" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>"Electricity,Water,Chilled Water,Gas"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Custom utility units" sqref="E19">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Custom utility units" sqref="E19" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>INDIRECT(SUBSTITUTE(D19," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{00000000-0002-0000-0300-000008000000}">
       <formula1>1900</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D11">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D11" xr:uid="{00000000-0002-0000-0300-000009000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21" xr:uid="{00000000-0002-0000-0300-00000A000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{00000000-0002-0000-0300-00000B000000}">
       <formula1>E19</formula1>
     </dataValidation>
   </dataValidations>
@@ -2035,27 +2092,27 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-00000C000000}">
           <x14:formula1>
             <xm:f>_location!$B$1:$U$1</xm:f>
           </x14:formula1>
           <xm:sqref>I3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-00000D000000}">
           <x14:formula1>
             <xm:f>_type!$A$1:$J$1</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-00000E000000}">
           <x14:formula1>
-            <xm:f>Baseline!$A$2:$A$55</xm:f>
+            <xm:f>Baseline!$A$2:$A$54</xm:f>
           </x14:formula1>
           <xm:sqref>D16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-00000F000000}">
           <x14:formula1>
-            <xm:f>Baseline!$B$2:$B$55</xm:f>
+            <xm:f>Baseline!$B$2:$B$54</xm:f>
           </x14:formula1>
           <xm:sqref>D17</xm:sqref>
         </x14:dataValidation>
@@ -2066,11 +2123,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2155,7 @@
         <f t="shared" ref="B2:B55" si="0">IF(ISBLANK(A3),"",A3)</f>
         <v>43470</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>279564</v>
       </c>
     </row>
@@ -2110,7 +2167,7 @@
         <f t="shared" si="0"/>
         <v>43477</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>192146</v>
       </c>
     </row>
@@ -2122,7 +2179,7 @@
         <f t="shared" si="0"/>
         <v>43484</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>181886</v>
       </c>
     </row>
@@ -2134,7 +2191,7 @@
         <f t="shared" si="0"/>
         <v>43491</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>155870</v>
       </c>
     </row>
@@ -2146,7 +2203,7 @@
         <f t="shared" si="0"/>
         <v>43498</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>177049</v>
       </c>
     </row>
@@ -2158,7 +2215,7 @@
         <f t="shared" si="0"/>
         <v>43505</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>183538</v>
       </c>
     </row>
@@ -2170,7 +2227,7 @@
         <f t="shared" si="0"/>
         <v>43512</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>170201</v>
       </c>
     </row>
@@ -2182,7 +2239,7 @@
         <f t="shared" si="0"/>
         <v>43519</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>158146</v>
       </c>
     </row>
@@ -2194,7 +2251,7 @@
         <f t="shared" si="0"/>
         <v>43526</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>149593</v>
       </c>
     </row>
@@ -2206,7 +2263,7 @@
         <f t="shared" si="0"/>
         <v>43533</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>138213</v>
       </c>
     </row>
@@ -2218,7 +2275,7 @@
         <f t="shared" si="0"/>
         <v>43540</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>159043</v>
       </c>
     </row>
@@ -2230,7 +2287,7 @@
         <f t="shared" si="0"/>
         <v>43547</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>246170</v>
       </c>
     </row>
@@ -2242,7 +2299,7 @@
         <f t="shared" si="0"/>
         <v>43554</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>185202</v>
       </c>
     </row>
@@ -2254,7 +2311,7 @@
         <f t="shared" si="0"/>
         <v>43561</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>240263</v>
       </c>
     </row>
@@ -2266,7 +2323,7 @@
         <f t="shared" si="0"/>
         <v>43568</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>255935</v>
       </c>
     </row>
@@ -2278,7 +2335,7 @@
         <f t="shared" si="0"/>
         <v>43575</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>230743</v>
       </c>
     </row>
@@ -2290,7 +2347,7 @@
         <f t="shared" si="0"/>
         <v>43582</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>246363</v>
       </c>
     </row>
@@ -2302,7 +2359,7 @@
         <f t="shared" si="0"/>
         <v>43589</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>241668</v>
       </c>
     </row>
@@ -2314,7 +2371,7 @@
         <f t="shared" si="0"/>
         <v>43596</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>276906</v>
       </c>
     </row>
@@ -2326,7 +2383,7 @@
         <f t="shared" si="0"/>
         <v>43603</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>271025</v>
       </c>
     </row>
@@ -2338,7 +2395,7 @@
         <f t="shared" si="0"/>
         <v>43610</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>282490</v>
       </c>
     </row>
@@ -2350,7 +2407,7 @@
         <f t="shared" si="0"/>
         <v>43617</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>312897</v>
       </c>
     </row>
@@ -2362,7 +2419,7 @@
         <f t="shared" si="0"/>
         <v>43624</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>371965</v>
       </c>
     </row>
@@ -2374,7 +2431,7 @@
         <f t="shared" si="0"/>
         <v>43631</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>385280</v>
       </c>
     </row>
@@ -2386,7 +2443,7 @@
         <f t="shared" si="0"/>
         <v>43638</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>364573</v>
       </c>
     </row>
@@ -2398,7 +2455,7 @@
         <f t="shared" si="0"/>
         <v>43645</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>453834</v>
       </c>
     </row>
@@ -2410,7 +2467,7 @@
         <f t="shared" si="0"/>
         <v>43652</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>373281</v>
       </c>
     </row>
@@ -2422,7 +2479,7 @@
         <f t="shared" si="0"/>
         <v>43659</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>395698</v>
       </c>
     </row>
@@ -2434,7 +2491,7 @@
         <f t="shared" si="0"/>
         <v>43666</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>418956</v>
       </c>
     </row>
@@ -2446,7 +2503,7 @@
         <f t="shared" si="0"/>
         <v>43673</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>417150</v>
       </c>
     </row>
@@ -2458,7 +2515,7 @@
         <f t="shared" si="0"/>
         <v>43680</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>412045</v>
       </c>
     </row>
@@ -2470,7 +2527,7 @@
         <f t="shared" si="0"/>
         <v>43687</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>443611</v>
       </c>
     </row>
@@ -2482,7 +2539,7 @@
         <f t="shared" si="0"/>
         <v>43694</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>444567</v>
       </c>
     </row>
@@ -2494,7 +2551,7 @@
         <f t="shared" si="0"/>
         <v>43701</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>377055</v>
       </c>
     </row>
@@ -2506,7 +2563,7 @@
         <f t="shared" si="0"/>
         <v>43708</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>330222</v>
       </c>
     </row>
@@ -2518,7 +2575,7 @@
         <f t="shared" si="0"/>
         <v>43715</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>316987</v>
       </c>
     </row>
@@ -2530,7 +2587,7 @@
         <f t="shared" si="0"/>
         <v>43722</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>323994</v>
       </c>
     </row>
@@ -2542,7 +2599,7 @@
         <f t="shared" si="0"/>
         <v>43729</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>333670</v>
       </c>
     </row>
@@ -2554,7 +2611,7 @@
         <f t="shared" si="0"/>
         <v>43736</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>357402</v>
       </c>
     </row>
@@ -2566,7 +2623,7 @@
         <f t="shared" si="0"/>
         <v>43743</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>364833</v>
       </c>
     </row>
@@ -2578,7 +2635,7 @@
         <f t="shared" si="0"/>
         <v>43750</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>305774</v>
       </c>
     </row>
@@ -2590,7 +2647,7 @@
         <f t="shared" si="0"/>
         <v>43757</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>287946</v>
       </c>
     </row>
@@ -2602,7 +2659,7 @@
         <f t="shared" si="0"/>
         <v>43764</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>291194</v>
       </c>
     </row>
@@ -2614,7 +2671,7 @@
         <f t="shared" si="0"/>
         <v>43771</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>243333</v>
       </c>
     </row>
@@ -2626,7 +2683,7 @@
         <f t="shared" si="0"/>
         <v>43778</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>243789</v>
       </c>
     </row>
@@ -2638,7 +2695,7 @@
         <f t="shared" si="0"/>
         <v>43785</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>231409</v>
       </c>
     </row>
@@ -2650,7 +2707,7 @@
         <f t="shared" si="0"/>
         <v>43792</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>92274</v>
       </c>
     </row>
@@ -2662,7 +2719,7 @@
         <f t="shared" si="0"/>
         <v>43799</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>129175.00000000001</v>
       </c>
     </row>
@@ -2674,7 +2731,7 @@
         <f t="shared" si="0"/>
         <v>43806</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>163755</v>
       </c>
     </row>
@@ -2686,7 +2743,7 @@
         <f t="shared" si="0"/>
         <v>43813</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>166217</v>
       </c>
     </row>
@@ -2698,7 +2755,7 @@
         <f t="shared" si="0"/>
         <v>43820</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>167781</v>
       </c>
     </row>
@@ -2710,7 +2767,7 @@
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>151895</v>
       </c>
     </row>
@@ -2722,7 +2779,7 @@
         <f t="shared" si="0"/>
         <v>43830</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>60996</v>
       </c>
     </row>
@@ -2734,9 +2791,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C55" s="9">
-        <v>0</v>
-      </c>
+      <c r="C55" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2748,12 +2803,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="E357" sqref="E357"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7580,7 +7633,7 @@
         <v>43786</v>
       </c>
       <c r="B322" s="1">
-        <f t="shared" ref="B322:B365" si="5">IF(ISBLANK(A323),"",A323)</f>
+        <f t="shared" ref="B322:B366" si="5">IF(ISBLANK(A323),"",A323)</f>
         <v>43787</v>
       </c>
       <c r="C322">
@@ -8228,7 +8281,7 @@
         <f t="shared" si="5"/>
         <v>43831</v>
       </c>
-      <c r="C365" s="24">
+      <c r="C365">
         <v>5.4939999999999998</v>
       </c>
       <c r="D365">
@@ -8240,7 +8293,7 @@
         <v>43831</v>
       </c>
       <c r="B366" s="1" t="str">
-        <f>IF(ISBLANK(A367),"",A367)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
